--- a/Team-Data/2007-08/2-29-2007-08.xlsx
+++ b/Team-Data/2007-08/2-29-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
         <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>0.439</v>
+        <v>0.429</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -684,7 +751,7 @@
         <v>35.1</v>
       </c>
       <c r="J2" t="n">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="K2" t="n">
         <v>0.442</v>
@@ -693,19 +760,19 @@
         <v>4.1</v>
       </c>
       <c r="M2" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O2" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="P2" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="R2" t="n">
         <v>12.6</v>
@@ -714,13 +781,13 @@
         <v>29.8</v>
       </c>
       <c r="T2" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U2" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V2" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W2" t="n">
         <v>7.7</v>
@@ -732,16 +799,16 @@
         <v>5.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA2" t="n">
         <v>21.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.1</v>
+        <v>-2.3</v>
       </c>
       <c r="AD2" t="n">
         <v>22</v>
@@ -750,7 +817,7 @@
         <v>20</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="n">
         <v>20</v>
@@ -774,7 +841,7 @@
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO2" t="n">
         <v>5</v>
@@ -789,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="AS2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>10</v>
@@ -798,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="AV2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW2" t="n">
         <v>9</v>
@@ -810,7 +877,7 @@
         <v>24</v>
       </c>
       <c r="AZ2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA2" t="n">
         <v>11</v>
@@ -819,7 +886,7 @@
         <v>21</v>
       </c>
       <c r="BC2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -848,25 +915,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.789</v>
+        <v>0.786</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J3" t="n">
-        <v>75.8</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0.475</v>
@@ -878,16 +945,16 @@
         <v>19.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.387</v>
+        <v>0.385</v>
       </c>
       <c r="O3" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P3" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R3" t="n">
         <v>9.5</v>
@@ -896,10 +963,10 @@
         <v>31.2</v>
       </c>
       <c r="T3" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U3" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V3" t="n">
         <v>15.3</v>
@@ -911,19 +978,19 @@
         <v>4.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA3" t="n">
         <v>23.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
         <v>22</v>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>22</v>
@@ -950,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM3" t="n">
         <v>10</v>
@@ -980,16 +1047,16 @@
         <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="n">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1051,25 +1118,25 @@
         <v>79.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L4" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M4" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O4" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P4" t="n">
         <v>25.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.705</v>
+        <v>0.704</v>
       </c>
       <c r="R4" t="n">
         <v>11.1</v>
@@ -1087,28 +1154,28 @@
         <v>15</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y4" t="n">
         <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA4" t="n">
         <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1123,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="n">
         <v>20</v>
@@ -1135,25 +1202,25 @@
         <v>17</v>
       </c>
       <c r="AM4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN4" t="n">
         <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="n">
         <v>12</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR4" t="n">
         <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT4" t="n">
         <v>25</v>
@@ -1162,16 +1229,16 @@
         <v>18</v>
       </c>
       <c r="AV4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="n">
         <v>23</v>
       </c>
       <c r="F5" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" t="n">
-        <v>0.397</v>
+        <v>0.404</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,7 +1297,7 @@
         <v>36.1</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="K5" t="n">
         <v>0.428</v>
@@ -1239,34 +1306,34 @@
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="N5" t="n">
         <v>0.352</v>
       </c>
       <c r="O5" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P5" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.741</v>
+        <v>0.742</v>
       </c>
       <c r="R5" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
         <v>43.7</v>
       </c>
       <c r="U5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="W5" t="n">
         <v>7.7</v>
@@ -1275,22 +1342,22 @@
         <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA5" t="n">
         <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1323,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="AO5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
@@ -1344,19 +1411,19 @@
         <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW5" t="n">
         <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA5" t="n">
         <v>13</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="n">
         <v>26</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.552</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1412,10 +1479,10 @@
         <v>36.2</v>
       </c>
       <c r="J6" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L6" t="n">
         <v>6.9</v>
@@ -1424,13 +1491,13 @@
         <v>19.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O6" t="n">
         <v>17.9</v>
       </c>
       <c r="P6" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q6" t="n">
         <v>0.721</v>
@@ -1442,34 +1509,34 @@
         <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U6" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V6" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y6" t="n">
         <v>4.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="AA6" t="n">
         <v>19.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AD6" t="n">
         <v>2</v>
@@ -1490,25 +1557,25 @@
         <v>19</v>
       </c>
       <c r="AJ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL6" t="n">
         <v>11</v>
       </c>
-      <c r="AK6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>12</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>11</v>
       </c>
       <c r="AN6" t="n">
         <v>13</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
         <v>27</v>
@@ -1517,19 +1584,19 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
         <v>4</v>
       </c>
       <c r="AU6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX6" t="n">
         <v>15</v>
@@ -1541,7 +1608,7 @@
         <v>21</v>
       </c>
       <c r="BA6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -1576,61 +1643,61 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.661</v>
+        <v>0.655</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J7" t="n">
-        <v>78.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L7" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M7" t="n">
         <v>16.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O7" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P7" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.82</v>
+        <v>0.819</v>
       </c>
       <c r="R7" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U7" t="n">
         <v>20.1</v>
       </c>
       <c r="V7" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W7" t="n">
         <v>6.1</v>
@@ -1639,7 +1706,7 @@
         <v>4.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z7" t="n">
         <v>21.6</v>
@@ -1648,16 +1715,16 @@
         <v>21.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AD7" t="n">
         <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
         <v>7</v>
@@ -1666,10 +1733,10 @@
         <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ7" t="n">
         <v>25</v>
@@ -1684,7 +1751,7 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
         <v>9</v>
@@ -1705,7 +1772,7 @@
         <v>8</v>
       </c>
       <c r="AU7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1717,7 +1784,7 @@
         <v>14</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ7" t="n">
         <v>20</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -1758,67 +1825,67 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
         <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>0.603</v>
+        <v>0.596</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J8" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K8" t="n">
         <v>0.457</v>
       </c>
       <c r="L8" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
         <v>18.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
       <c r="O8" t="n">
         <v>23.1</v>
       </c>
       <c r="P8" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R8" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S8" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T8" t="n">
-        <v>44.9</v>
+        <v>44.7</v>
       </c>
       <c r="U8" t="n">
         <v>23.8</v>
       </c>
       <c r="V8" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="X8" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="Y8" t="n">
         <v>5</v>
@@ -1827,7 +1894,7 @@
         <v>20.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AB8" t="n">
         <v>107.6</v>
@@ -1836,7 +1903,7 @@
         <v>2.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1854,19 +1921,19 @@
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK8" t="n">
         <v>12</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,7 +1945,7 @@
         <v>16</v>
       </c>
       <c r="AR8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
@@ -1890,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1899,13 +1966,13 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ8" t="n">
         <v>14</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2048,13 +2115,13 @@
         <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
       </c>
       <c r="AP9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
         <v>13</v>
@@ -2069,13 +2136,13 @@
         <v>20</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -2122,31 +2189,31 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" t="n">
         <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>0.614</v>
+        <v>0.607</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="J10" t="n">
-        <v>89</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L10" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M10" t="n">
         <v>27.1</v>
@@ -2155,10 +2222,10 @@
         <v>0.349</v>
       </c>
       <c r="O10" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P10" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q10" t="n">
         <v>0.747</v>
@@ -2170,10 +2237,10 @@
         <v>29.9</v>
       </c>
       <c r="T10" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U10" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V10" t="n">
         <v>13.6</v>
@@ -2182,22 +2249,22 @@
         <v>9.1</v>
       </c>
       <c r="X10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA10" t="n">
         <v>22.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>110.1</v>
+        <v>110</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AD10" t="n">
         <v>22</v>
@@ -2206,7 +2273,7 @@
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
@@ -2248,22 +2315,22 @@
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
         <v>2</v>
       </c>
       <c r="AX10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY10" t="n">
         <v>19</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>18</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -2304,85 +2371,85 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.655</v>
+        <v>0.649</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J11" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L11" t="n">
         <v>6.9</v>
       </c>
       <c r="M11" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O11" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="P11" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.726</v>
+        <v>0.723</v>
       </c>
       <c r="R11" t="n">
         <v>12.1</v>
       </c>
       <c r="S11" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T11" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U11" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V11" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W11" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X11" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Y11" t="n">
         <v>4.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA11" t="n">
         <v>19.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>96.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2397,22 +2464,22 @@
         <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>17</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
@@ -2421,10 +2488,10 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS11" t="n">
         <v>4</v>
@@ -2445,19 +2512,19 @@
         <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ11" t="n">
         <v>6</v>
       </c>
       <c r="BA11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB11" t="n">
         <v>18</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -2486,52 +2553,52 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="n">
         <v>36</v>
       </c>
       <c r="G12" t="n">
-        <v>0.39</v>
+        <v>0.379</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J12" t="n">
         <v>85.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L12" t="n">
         <v>8.9</v>
       </c>
       <c r="M12" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="N12" t="n">
         <v>0.364</v>
       </c>
       <c r="O12" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P12" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R12" t="n">
         <v>11.3</v>
       </c>
       <c r="S12" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T12" t="n">
         <v>43.6</v>
@@ -2540,34 +2607,34 @@
         <v>22.8</v>
       </c>
       <c r="V12" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W12" t="n">
         <v>7.4</v>
       </c>
       <c r="X12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AA12" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.7</v>
+        <v>102.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.5</v>
+        <v>-2.7</v>
       </c>
       <c r="AD12" t="n">
         <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2576,16 +2643,16 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL12" t="n">
         <v>3</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
@@ -2615,13 +2682,13 @@
         <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -2668,37 +2735,37 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" t="n">
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" t="n">
-        <v>0.339</v>
+        <v>0.345</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="J13" t="n">
-        <v>78.90000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M13" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.336</v>
+        <v>0.333</v>
       </c>
       <c r="O13" t="n">
         <v>21</v>
@@ -2719,7 +2786,7 @@
         <v>40.3</v>
       </c>
       <c r="U13" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V13" t="n">
         <v>14.4</v>
@@ -2731,28 +2798,28 @@
         <v>5</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z13" t="n">
         <v>21.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC13" t="n">
         <v>-4.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE13" t="n">
         <v>24</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
         <v>24</v>
@@ -2776,7 +2843,7 @@
         <v>26</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO13" t="n">
         <v>7</v>
@@ -2794,22 +2861,22 @@
         <v>14</v>
       </c>
       <c r="AT13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AU13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW13" t="n">
         <v>19</v>
       </c>
       <c r="AX13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ13" t="n">
         <v>22</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" t="n">
         <v>41</v>
       </c>
       <c r="F14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.695</v>
+        <v>0.707</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2868,19 +2935,19 @@
         <v>39.5</v>
       </c>
       <c r="J14" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K14" t="n">
         <v>0.48</v>
       </c>
       <c r="L14" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M14" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.371</v>
+        <v>0.375</v>
       </c>
       <c r="O14" t="n">
         <v>21.3</v>
@@ -2895,25 +2962,25 @@
         <v>10.6</v>
       </c>
       <c r="S14" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="T14" t="n">
         <v>44.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
         <v>14.8</v>
       </c>
       <c r="W14" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X14" t="n">
         <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z14" t="n">
         <v>20.7</v>
@@ -2922,10 +2989,10 @@
         <v>22.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD14" t="n">
         <v>2</v>
@@ -2934,13 +3001,13 @@
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2952,13 +3019,13 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM14" t="n">
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2973,7 +3040,7 @@
         <v>20</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>5</v>
@@ -2988,10 +3055,10 @@
         <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ14" t="n">
         <v>11</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -3032,70 +3099,70 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" t="n">
-        <v>0.241</v>
+        <v>0.246</v>
       </c>
       <c r="H15" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I15" t="n">
         <v>36.9</v>
       </c>
       <c r="J15" t="n">
-        <v>81.3</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L15" t="n">
         <v>7.8</v>
       </c>
       <c r="M15" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="O15" t="n">
         <v>18.1</v>
       </c>
       <c r="P15" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.736</v>
+        <v>0.738</v>
       </c>
       <c r="R15" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S15" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T15" t="n">
         <v>41.4</v>
       </c>
       <c r="U15" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="V15" t="n">
         <v>15.9</v>
       </c>
       <c r="W15" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X15" t="n">
         <v>5.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Z15" t="n">
         <v>19.4</v>
@@ -3104,13 +3171,13 @@
         <v>22.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.9</v>
+        <v>-5.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3140,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
         <v>19</v>
@@ -3155,25 +3222,25 @@
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT15" t="n">
         <v>18</v>
       </c>
       <c r="AU15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV15" t="n">
         <v>28</v>
       </c>
       <c r="AW15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX15" t="n">
         <v>8</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
         <v>3</v>
@@ -3185,7 +3252,7 @@
         <v>12</v>
       </c>
       <c r="BC15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
         <v>46</v>
       </c>
       <c r="G16" t="n">
-        <v>0.193</v>
+        <v>0.179</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J16" t="n">
-        <v>78.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L16" t="n">
         <v>4.8</v>
@@ -3244,31 +3311,31 @@
         <v>14.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O16" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P16" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q16" t="n">
         <v>0.721</v>
       </c>
       <c r="R16" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S16" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T16" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="U16" t="n">
         <v>20.4</v>
       </c>
       <c r="V16" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W16" t="n">
         <v>7.4</v>
@@ -3277,19 +3344,19 @@
         <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>-7</v>
+        <v>-7.3</v>
       </c>
       <c r="AD16" t="n">
         <v>22</v>
@@ -3310,7 +3377,7 @@
         <v>26</v>
       </c>
       <c r="AJ16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK16" t="n">
         <v>16</v>
@@ -3322,13 +3389,13 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO16" t="n">
         <v>21</v>
       </c>
-      <c r="AO16" t="n">
-        <v>22</v>
-      </c>
       <c r="AP16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ16" t="n">
         <v>28</v>
@@ -3346,10 +3413,10 @@
         <v>21</v>
       </c>
       <c r="AV16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW16" t="n">
         <v>17</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>16</v>
       </c>
       <c r="AX16" t="n">
         <v>21</v>
@@ -3361,13 +3428,13 @@
         <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB16" t="n">
+        <v>30</v>
+      </c>
+      <c r="BC16" t="n">
         <v>29</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>28</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -3474,37 +3541,37 @@
         <v>-6.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF17" t="n">
         <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK17" t="n">
         <v>18</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>19</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
       </c>
       <c r="AM17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO17" t="n">
         <v>25</v>
@@ -3516,7 +3583,7 @@
         <v>19</v>
       </c>
       <c r="AR17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
@@ -3525,10 +3592,10 @@
         <v>24</v>
       </c>
       <c r="AU17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>23</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" t="n">
         <v>12</v>
       </c>
       <c r="F18" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" t="n">
-        <v>0.211</v>
+        <v>0.214</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J18" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L18" t="n">
         <v>5.4</v>
@@ -3608,28 +3675,28 @@
         <v>16.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O18" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="P18" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.725</v>
+        <v>0.724</v>
       </c>
       <c r="R18" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S18" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T18" t="n">
         <v>41.9</v>
       </c>
       <c r="U18" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="V18" t="n">
         <v>15.3</v>
@@ -3641,16 +3708,16 @@
         <v>3.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z18" t="n">
         <v>23.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.40000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="AC18" t="n">
         <v>-7.3</v>
@@ -3671,19 +3738,19 @@
         <v>30</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
       </c>
       <c r="AM18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
         <v>28</v>
@@ -3698,13 +3765,13 @@
         <v>25</v>
       </c>
       <c r="AR18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU18" t="n">
         <v>27</v>
@@ -3719,7 +3786,7 @@
         <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
         <v>28</v>
@@ -3728,10 +3795,10 @@
         <v>30</v>
       </c>
       <c r="BB18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -3838,34 +3905,34 @@
         <v>-4.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
       </c>
       <c r="AJ19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>19</v>
       </c>
       <c r="AM19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN19" t="n">
         <v>18</v>
@@ -3877,7 +3944,7 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR19" t="n">
         <v>14</v>
@@ -3892,10 +3959,10 @@
         <v>3</v>
       </c>
       <c r="AV19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" t="n">
         <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,10 +4027,10 @@
         <v>38.4</v>
       </c>
       <c r="J20" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L20" t="n">
         <v>7.8</v>
@@ -3972,31 +4039,31 @@
         <v>20.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.389</v>
+        <v>0.388</v>
       </c>
       <c r="O20" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="P20" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.775</v>
+        <v>0.773</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
         <v>30.8</v>
       </c>
       <c r="T20" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U20" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="W20" t="n">
         <v>7.6</v>
@@ -4005,7 +4072,7 @@
         <v>3.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z20" t="n">
         <v>18.9</v>
@@ -4014,19 +4081,19 @@
         <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AD20" t="n">
         <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG20" t="n">
         <v>5</v>
@@ -4068,10 +4135,10 @@
         <v>15</v>
       </c>
       <c r="AT20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -4124,43 +4191,43 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" t="n">
         <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="n">
-        <v>0.31</v>
+        <v>0.316</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J21" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L21" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M21" t="n">
         <v>17.5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O21" t="n">
         <v>19.1</v>
       </c>
       <c r="P21" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="Q21" t="n">
         <v>0.727</v>
@@ -4169,19 +4236,19 @@
         <v>12.2</v>
       </c>
       <c r="S21" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U21" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="V21" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W21" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X21" t="n">
         <v>2.4</v>
@@ -4190,19 +4257,19 @@
         <v>5.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="AC21" t="n">
         <v>-5.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4223,7 +4290,7 @@
         <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL21" t="n">
         <v>20</v>
@@ -4232,7 +4299,7 @@
         <v>15</v>
       </c>
       <c r="AN21" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO21" t="n">
         <v>12</v>
@@ -4244,13 +4311,13 @@
         <v>22</v>
       </c>
       <c r="AR21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
@@ -4271,13 +4338,13 @@
         <v>16</v>
       </c>
       <c r="BA21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
@@ -4423,7 +4490,7 @@
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR22" t="n">
         <v>26</v>
@@ -4432,16 +4499,16 @@
         <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV22" t="n">
         <v>12</v>
       </c>
       <c r="AW22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX22" t="n">
         <v>24</v>
@@ -4453,7 +4520,7 @@
         <v>15</v>
       </c>
       <c r="BA22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" t="n">
         <v>26</v>
       </c>
       <c r="F23" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" t="n">
-        <v>0.441</v>
+        <v>0.448</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
@@ -4506,64 +4573,64 @@
         <v>36.7</v>
       </c>
       <c r="J23" t="n">
-        <v>80.59999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.312</v>
+        <v>0.313</v>
       </c>
       <c r="O23" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P23" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.704</v>
+        <v>0.705</v>
       </c>
       <c r="R23" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="S23" t="n">
         <v>29.1</v>
       </c>
       <c r="T23" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U23" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V23" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W23" t="n">
         <v>8.5</v>
       </c>
       <c r="X23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB23" t="n">
         <v>95.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="AD23" t="n">
         <v>2</v>
@@ -4572,13 +4639,13 @@
         <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH23" t="n">
         <v>19</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>20</v>
       </c>
       <c r="AI23" t="n">
         <v>12</v>
@@ -4587,7 +4654,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4599,13 +4666,13 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP23" t="n">
         <v>11</v>
       </c>
       <c r="AQ23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR23" t="n">
         <v>2</v>
@@ -4614,7 +4681,7 @@
         <v>28</v>
       </c>
       <c r="AT23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU23" t="n">
         <v>22</v>
@@ -4626,10 +4693,10 @@
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ23" t="n">
         <v>9</v>
@@ -4638,10 +4705,10 @@
         <v>19</v>
       </c>
       <c r="BB23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>4.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>4</v>
@@ -4760,7 +4827,7 @@
         <v>6</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4781,7 +4848,7 @@
         <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP24" t="n">
         <v>24</v>
@@ -4811,10 +4878,10 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" t="n">
         <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>0.525</v>
+        <v>0.517</v>
       </c>
       <c r="H25" t="n">
         <v>48.7</v>
       </c>
       <c r="I25" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="J25" t="n">
-        <v>78.90000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L25" t="n">
         <v>6.4</v>
@@ -4882,7 +4949,7 @@
         <v>17.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.376</v>
+        <v>0.374</v>
       </c>
       <c r="O25" t="n">
         <v>17.8</v>
@@ -4891,10 +4958,10 @@
         <v>23.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="R25" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S25" t="n">
         <v>29.7</v>
@@ -4903,19 +4970,19 @@
         <v>40.2</v>
       </c>
       <c r="U25" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="V25" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W25" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X25" t="n">
         <v>4.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z25" t="n">
         <v>20</v>
@@ -4924,10 +4991,10 @@
         <v>20.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.3</v>
+        <v>94.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="AD25" t="n">
         <v>2</v>
@@ -4945,22 +5012,22 @@
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
         <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
         <v>23</v>
@@ -4972,16 +5039,16 @@
         <v>12</v>
       </c>
       <c r="AR25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS25" t="n">
         <v>22</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>23</v>
       </c>
       <c r="AT25" t="n">
         <v>29</v>
       </c>
       <c r="AU25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV25" t="n">
         <v>6</v>
@@ -4990,10 +5057,10 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ25" t="n">
         <v>8</v>
@@ -5002,7 +5069,7 @@
         <v>18</v>
       </c>
       <c r="BB25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BC25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" t="n">
         <v>26</v>
       </c>
       <c r="F26" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="n">
-        <v>0.448</v>
+        <v>0.456</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J26" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L26" t="n">
         <v>6.4</v>
@@ -5064,7 +5131,7 @@
         <v>17.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="O26" t="n">
         <v>21.9</v>
@@ -5073,7 +5140,7 @@
         <v>27.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R26" t="n">
         <v>10.5</v>
@@ -5082,37 +5149,37 @@
         <v>29.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U26" t="n">
         <v>19</v>
       </c>
       <c r="V26" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W26" t="n">
         <v>7.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA26" t="n">
         <v>23.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5133,16 +5200,16 @@
         <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
         <v>15</v>
       </c>
       <c r="AM26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5154,10 +5221,10 @@
         <v>6</v>
       </c>
       <c r="AR26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT26" t="n">
         <v>27</v>
@@ -5166,7 +5233,7 @@
         <v>28</v>
       </c>
       <c r="AV26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW26" t="n">
         <v>7</v>
@@ -5175,7 +5242,7 @@
         <v>26</v>
       </c>
       <c r="AY26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ26" t="n">
         <v>24</v>
@@ -5187,7 +5254,7 @@
         <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>5.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
         <v>4</v>
@@ -5303,10 +5370,10 @@
         <v>3</v>
       </c>
       <c r="AG27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
         <v>23</v>
@@ -5357,7 +5424,7 @@
         <v>25</v>
       </c>
       <c r="AY27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ27" t="n">
         <v>1</v>
@@ -5369,7 +5436,7 @@
         <v>19</v>
       </c>
       <c r="BC27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" t="n">
-        <v>0.259</v>
+        <v>0.263</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5416,31 +5483,31 @@
         <v>37.6</v>
       </c>
       <c r="J28" t="n">
-        <v>85.40000000000001</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="M28" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O28" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="P28" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="R28" t="n">
         <v>12.2</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.339</v>
-      </c>
-      <c r="O28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="P28" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.765</v>
-      </c>
-      <c r="R28" t="n">
-        <v>12.1</v>
       </c>
       <c r="S28" t="n">
         <v>33.4</v>
@@ -5449,7 +5516,7 @@
         <v>45.5</v>
       </c>
       <c r="U28" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V28" t="n">
         <v>16.2</v>
@@ -5464,19 +5531,19 @@
         <v>5.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB28" t="n">
         <v>96.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>-7.5</v>
+        <v>-7.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5494,7 +5561,7 @@
         <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK28" t="n">
         <v>26</v>
@@ -5503,10 +5570,10 @@
         <v>28</v>
       </c>
       <c r="AM28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO28" t="n">
         <v>24</v>
@@ -5518,31 +5585,31 @@
         <v>11</v>
       </c>
       <c r="AR28" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY28" t="n">
         <v>25</v>
       </c>
       <c r="AZ28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA28" t="n">
         <v>27</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" t="n">
         <v>32</v>
       </c>
       <c r="F29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J29" t="n">
-        <v>81.2</v>
+        <v>81</v>
       </c>
       <c r="K29" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L29" t="n">
         <v>7.7</v>
@@ -5610,13 +5677,13 @@
         <v>18.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.415</v>
+        <v>0.418</v>
       </c>
       <c r="O29" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P29" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q29" t="n">
         <v>0.8139999999999999</v>
@@ -5625,13 +5692,13 @@
         <v>9.699999999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U29" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V29" t="n">
         <v>11.7</v>
@@ -5652,16 +5719,16 @@
         <v>18.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="AC29" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AD29" t="n">
         <v>22</v>
       </c>
       <c r="AE29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF29" t="n">
         <v>13</v>
@@ -5676,7 +5743,7 @@
         <v>7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK29" t="n">
         <v>6</v>
@@ -5706,7 +5773,7 @@
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
         <v>6</v>
@@ -5718,10 +5785,10 @@
         <v>21</v>
       </c>
       <c r="AX29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ29" t="n">
         <v>7</v>
@@ -5733,7 +5800,7 @@
         <v>11</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -5762,46 +5829,46 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" t="n">
         <v>37</v>
       </c>
       <c r="F30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G30" t="n">
-        <v>0.627</v>
+        <v>0.638</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="J30" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K30" t="n">
         <v>0.492</v>
       </c>
       <c r="L30" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="M30" t="n">
         <v>12.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.36</v>
+        <v>0.364</v>
       </c>
       <c r="O30" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="P30" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R30" t="n">
         <v>11.5</v>
@@ -5813,37 +5880,37 @@
         <v>40.8</v>
       </c>
       <c r="U30" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="V30" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W30" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X30" t="n">
         <v>4.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>105.2</v>
+        <v>105.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AD30" t="n">
         <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
         <v>9</v>
@@ -5852,13 +5919,13 @@
         <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="n">
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
         <v>2</v>
@@ -5867,10 +5934,10 @@
         <v>26</v>
       </c>
       <c r="AM30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5885,7 +5952,7 @@
         <v>15</v>
       </c>
       <c r="AS30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT30" t="n">
         <v>22</v>
@@ -5900,10 +5967,10 @@
         <v>3</v>
       </c>
       <c r="AX30" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AY30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ30" t="n">
         <v>30</v>
@@ -5915,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" t="n">
         <v>30</v>
       </c>
       <c r="G31" t="n">
-        <v>0.483</v>
+        <v>0.474</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
@@ -5962,49 +6029,49 @@
         <v>36.1</v>
       </c>
       <c r="J31" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K31" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L31" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M31" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.339</v>
+        <v>0.341</v>
       </c>
       <c r="O31" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P31" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.792</v>
+        <v>0.794</v>
       </c>
       <c r="R31" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S31" t="n">
         <v>29.6</v>
       </c>
       <c r="T31" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U31" t="n">
         <v>18.8</v>
       </c>
       <c r="V31" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W31" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X31" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y31" t="n">
         <v>4.4</v>
@@ -6013,16 +6080,16 @@
         <v>19.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AB31" t="n">
         <v>98</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6040,7 +6107,7 @@
         <v>20</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>23</v>
@@ -6049,10 +6116,10 @@
         <v>13</v>
       </c>
       <c r="AM31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6070,13 +6137,13 @@
         <v>24</v>
       </c>
       <c r="AT31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW31" t="n">
         <v>8</v>
@@ -6088,7 +6155,7 @@
         <v>9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA31" t="n">
         <v>23</v>
@@ -6097,7 +6164,7 @@
         <v>15</v>
       </c>
       <c r="BC31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-29-2007-08</t>
+          <t>2008-02-29</t>
         </is>
       </c>
     </row>
